--- a/CKPManagement/src/main/webapp/file/export/pumps_data_export.xlsx
+++ b/CKPManagement/src/main/webapp/file/export/pumps_data_export.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>DANH SÁCH MÁY BƠM</t>
   </si>
@@ -70,6 +70,24 @@
   </si>
   <si>
     <t>§T       : 04 22 450 159 -   Fax: 04 22 253 243</t>
+  </si>
+  <si>
+    <t>${data_JxLsC_.index}</t>
+  </si>
+  <si>
+    <t>${data_JxLsC_.pumpsCode}</t>
+  </si>
+  <si>
+    <t>${data_JxLsC_.pumpsName}</t>
+  </si>
+  <si>
+    <t>${data_JxLsC_.pumpsCapacity}</t>
+  </si>
+  <si>
+    <t>${data_JxLsC_.pumpsHight}</t>
+  </si>
+  <si>
+    <t>${data_JxLsC_.pumpsFar}</t>
   </si>
   <si>
     <t/>
@@ -629,24 +647,12 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="6">
